--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Bmpr1a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H2">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N2">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P2">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q2">
-        <v>8.956286634631333</v>
+        <v>0.09293501428866664</v>
       </c>
       <c r="R2">
-        <v>80.606579711682</v>
+        <v>0.8364151285979999</v>
       </c>
       <c r="S2">
-        <v>0.03783115021012002</v>
+        <v>0.001056474888615366</v>
       </c>
       <c r="T2">
-        <v>0.03783115021012003</v>
+        <v>0.001056474888615366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H3">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N3">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P3">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q3">
-        <v>26.36946901935978</v>
+        <v>1.880774464600111</v>
       </c>
       <c r="R3">
-        <v>237.325221174238</v>
+        <v>16.926970181401</v>
       </c>
       <c r="S3">
-        <v>0.1113840349386685</v>
+        <v>0.0213804345779429</v>
       </c>
       <c r="T3">
-        <v>0.1113840349386685</v>
+        <v>0.0213804345779429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H4">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N4">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P4">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q4">
-        <v>20.384972423614</v>
+        <v>1.234631564607</v>
       </c>
       <c r="R4">
-        <v>183.464751812526</v>
+        <v>11.111684081463</v>
       </c>
       <c r="S4">
-        <v>0.08610565798608343</v>
+        <v>0.01403515407710289</v>
       </c>
       <c r="T4">
-        <v>0.08610565798608343</v>
+        <v>0.01403515407710289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N5">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P5">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q5">
-        <v>14.351577249382</v>
+        <v>2.087928796124</v>
       </c>
       <c r="R5">
-        <v>129.164195244438</v>
+        <v>18.791359165116</v>
       </c>
       <c r="S5">
-        <v>0.06062073455466853</v>
+        <v>0.02373534193980232</v>
       </c>
       <c r="T5">
-        <v>0.06062073455466853</v>
+        <v>0.02373534193980232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.340694</v>
       </c>
       <c r="I6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N6">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P6">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q6">
-        <v>42.25450648187133</v>
+        <v>42.25450648187134</v>
       </c>
       <c r="R6">
         <v>380.290558336842</v>
       </c>
       <c r="S6">
-        <v>0.1784820704139919</v>
+        <v>0.4803445221439664</v>
       </c>
       <c r="T6">
-        <v>0.1784820704139919</v>
+        <v>0.4803445221439663</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.340694</v>
       </c>
       <c r="I7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N7">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P7">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q7">
-        <v>32.66493340362601</v>
+        <v>27.737907139494</v>
       </c>
       <c r="R7">
-        <v>293.984400632634</v>
+        <v>249.641164255446</v>
       </c>
       <c r="S7">
-        <v>0.1379759327283979</v>
+        <v>0.3153214381029469</v>
       </c>
       <c r="T7">
-        <v>0.1379759327283979</v>
+        <v>0.3153214381029468</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H8">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I8">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J8">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.918858999999999</v>
+        <v>1.443038</v>
       </c>
       <c r="N8">
-        <v>29.756577</v>
+        <v>4.329114</v>
       </c>
       <c r="O8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="P8">
-        <v>0.160764128269069</v>
+        <v>0.0289666880885598</v>
       </c>
       <c r="Q8">
-        <v>14.752031343789</v>
+        <v>0.3672512469493333</v>
       </c>
       <c r="R8">
-        <v>132.768282094101</v>
+        <v>3.305261222543999</v>
       </c>
       <c r="S8">
-        <v>0.06231224350428047</v>
+        <v>0.004174871260142114</v>
       </c>
       <c r="T8">
-        <v>0.06231224350428047</v>
+        <v>0.004174871260142113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H9">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I9">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J9">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>29.20351433333333</v>
       </c>
       <c r="N9">
-        <v>87.61054299999999</v>
+        <v>87.61054300000001</v>
       </c>
       <c r="O9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="P9">
-        <v>0.47332838627826</v>
+        <v>0.5862140087672342</v>
       </c>
       <c r="Q9">
-        <v>43.43353996605099</v>
+        <v>7.432255459814222</v>
       </c>
       <c r="R9">
-        <v>390.9018596944589</v>
+        <v>66.890299138328</v>
       </c>
       <c r="S9">
-        <v>0.1834622809255995</v>
+        <v>0.08448905204532493</v>
       </c>
       <c r="T9">
-        <v>0.1834622809255996</v>
+        <v>0.08448905204532493</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H10">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I10">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J10">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.575837</v>
+        <v>19.170603</v>
       </c>
       <c r="N10">
-        <v>67.72751100000001</v>
+        <v>57.511809</v>
       </c>
       <c r="O10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="P10">
-        <v>0.365907485452671</v>
+        <v>0.384819303144206</v>
       </c>
       <c r="Q10">
-        <v>33.576387670827</v>
+        <v>4.878892902695999</v>
       </c>
       <c r="R10">
-        <v>302.187489037443</v>
+        <v>43.910036124264</v>
       </c>
       <c r="S10">
-        <v>0.1418258947381896</v>
+        <v>0.0554627109641563</v>
       </c>
       <c r="T10">
-        <v>0.1418258947381896</v>
+        <v>0.05546271096415629</v>
       </c>
     </row>
   </sheetData>
